--- a/notebooks_rotten_tomatoes_static_lex/test_cases/approach4.xlsx
+++ b/notebooks_rotten_tomatoes_static_lex/test_cases/approach4.xlsx
@@ -979,8 +979,8 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>" one look at a girl in tight pants and big tits and you turn entire ? " um -  . . is n't that the basis for the entire plot ?</t>
+          <t>" one look at a girl in tight pants and big tits and you turn preposterous ? " um +  . . is n't that the basis for the preposterous plot ?</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -998,8 +998,8 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>" one look at a girl in tight pants and big tits and you turn cumbersome ? " um -  . . is n't that the basis for the cumbersome plot ?</t>
+          <t>" one look at a girl in tight pants and big tits and you turn stupid ? " um +  . . is n't that the basis for the stupid plot ?</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1025,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1058,7 +1058,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally wannabe and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -1076,7 +1076,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally psychopathic and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally manipulative and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1094,7 +1094,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally drunk and sadly brilliant of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1112,7 +1112,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally undeterminable and sadly unconditional of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally unpretentious and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1130,7 +1130,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly worth of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally tiresome and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1148,7 +1148,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally drunk and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally entire and sadly unconditional of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1166,7 +1166,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally drunk and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1184,7 +1184,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally sensitive and sadly notch of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally nasty and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1202,7 +1202,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally short and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally drunk and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1220,7 +1220,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally undeterminable and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly successful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1238,7 +1238,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly terrific of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally preposterous and sadly engrossing of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1256,7 +1256,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally cumbersome and sadly engrossing of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally off and sadly terrific of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1274,7 +1274,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally psychopathic and sadly terrific of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally sensitive and sadly wonderful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1292,7 +1292,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally cumbersome and sadly tender of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally cumbersome and sadly terrific of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1310,7 +1310,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally preposterous and sadly brilliant of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally preposterous and sadly tender of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1328,7 +1328,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally short and sadly brilliant of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally entire and sadly brilliant of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1346,7 +1346,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally entire and sadly successful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally original and sadly phenomenal of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1364,7 +1364,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally undeterminable and sadly tender of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally original and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1382,7 +1382,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally sensitive and sadly engrossing of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally drunk and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1400,7 +1400,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly engrossing of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally cumbersome and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1418,7 +1418,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally sensitive and sadly worth of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally previous and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1436,7 +1436,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally preposterous and sadly successful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally preposterous and sadly brilliant of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1454,7 +1454,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally entire and sadly terrific of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally sensitive and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1472,7 +1472,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally sensitive and sadly successful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally sensitive and sadly imitative of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1490,7 +1490,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally entire and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally entire and sadly engrossing of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1508,7 +1508,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally wannabe and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally undeterminable and sadly engrossing of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1526,7 +1526,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally preposterous and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally off and sadly powerful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1544,7 +1544,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally wannabe and sadly engrossing of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1562,7 +1562,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly successful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally wannabe and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1580,7 +1580,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly successful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally previous and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1598,7 +1598,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally preposterous and sadly engrossing of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally previous and sadly powerful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1616,7 +1616,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly tender of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally cumbersome and sadly wonderful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1634,7 +1634,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally entire and sadly phenomenal of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly engrossing of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1652,7 +1652,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally sensitive and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally off and sadly engrossing of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1670,7 +1670,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally wannabe and sadly brilliant of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1688,7 +1688,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally preposterous and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally undeterminable and sadly successful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1706,7 +1706,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally wannabe and sadly brilliant of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally unpretentious and sadly funny of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1724,7 +1724,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly notch of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally manipulative and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1742,7 +1742,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly funny of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally cumbersome and sadly brilliant of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1760,7 +1760,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally original and sadly unconditional of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally original and sadly imitative of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1778,7 +1778,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally undeterminable and sadly brilliant of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally stupid and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1796,7 +1796,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally previous and sadly worth of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly brilliant of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1804,17 +1804,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally drunk and sadly terrific of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally undeterminable and sadly timeless of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1822,17 +1822,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally preposterous and sadly imitative of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally previous and sadly successful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1840,17 +1840,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally stupid and sadly wonderful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally entire and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally short and sadly phenomenal of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally dumb and sadly breathtaking of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1876,17 +1876,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly unconditional of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally preposterous and sadly passionate of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1894,17 +1894,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally drunk and sadly worth of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly powerful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1912,17 +1912,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally psychopathic and sadly notch of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally psychopathic and sadly passionate of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1930,17 +1930,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally entire and sadly worth of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally sensitive and sadly passionate of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1948,17 +1948,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally wannabe and sadly successful of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally undeterminable and sadly unconditional of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1966,17 +1966,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally short and sadly unconditional of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally cumbersome and sadly engrossing of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1984,17 +1984,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>charly comes off as emotionally manipulative and sadly phenomenal of innumerable past love story derisions .</t>
+          <t>charly comes off as emotionally original and sadly wonderful of innumerable past love story derisions .</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2002,10 +2002,262 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D54" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally entire and sadly powerful of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally undeterminable and sadly breathtaking of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally off and sadly notch of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally nasty and sadly notch of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally bad and sadly worth of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally stupid and sadly phenomenal of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally manipulative and sadly terrific of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally wannabe and sadly imitative of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally bad and sadly brilliant of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally tiresome and sadly passionate of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally dumb and sadly wonderful of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally stupid and sadly tender of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally stupid and sadly engrossing of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>charly comes off as emotionally short and sadly phenomenal of innumerable past love story derisions .</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2020,7 +2272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2053,7 +2305,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tully is imitative a look for its true - to - life characters , its stupid acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is unconditional a look for its true - to - life characters , its bad acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2071,7 +2323,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>tully is notch a look for its true - to - life characters , its drunk acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is imitative a look for its true - to - life characters , its nasty acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2089,7 +2341,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>tully is worth a look for its true - to - life characters , its stupid acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is worth a look for its true - to - life characters , its bad acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2107,7 +2359,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>tully is tender a look for its true - to - life characters , its stupid acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is tender a look for its true - to - life characters , its tiresome acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2125,7 +2377,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>tully is funny a look for its true - to - life characters , its previous acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is timeless a look for its true - to - life characters , its stupid acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2133,17 +2385,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>tully is notch a look for its true - to - life characters , its undeterminable acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is passionate a look for its true - to - life characters , its bad acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2151,17 +2403,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>tully is tender a look for its true - to - life characters , its undeterminable acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is timeless a look for its true - to - life characters , its tiresome acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2169,17 +2421,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>tully is worth a look for its true - to - life characters , its wannabe acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is notch a look for its true - to - life characters , its drunk acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2187,17 +2439,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>tully is engrossing a look for its true - to - life characters , its wannabe acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is successful a look for its true - to - life characters , its bad acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2205,17 +2457,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>tully is wonderful a look for its true - to - life characters , its original acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is tender a look for its true - to - life characters , its bad acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2223,17 +2475,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tully is successful a look for its true - to - life characters , its short acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is phenomenal a look for its true - to - life characters , its preposterous acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2251,7 +2503,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>tully is imitative a look for its true - to - life characters , its manipulative acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is breathtaking a look for its true - to - life characters , its dumb acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2269,7 +2521,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tully is successful a look for its true - to - life characters , its cumbersome acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is wonderful a look for its true - to - life characters , its short acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2287,7 +2539,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>tully is wonderful a look for its true - to - life characters , its drunk acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is powerful a look for its true - to - life characters , its undeterminable acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2305,7 +2557,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>tully is imitative a look for its true - to - life characters , its sensitive acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is worth a look for its true - to - life characters , its wannabe acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2323,7 +2575,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>tully is terrific a look for its true - to - life characters , its original acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is brilliant a look for its true - to - life characters , its psychopathic acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2341,7 +2593,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tully is tender a look for its true - to - life characters , its drunk acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is worth a look for its true - to - life characters , its tiresome acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2359,7 +2611,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>tully is unconditional a look for its true - to - life characters , its drunk acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is engrossing a look for its true - to - life characters , its original acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2377,7 +2629,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>tully is funny a look for its true - to - life characters , its original acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is successful a look for its true - to - life characters , its previous acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -2395,7 +2647,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tully is unconditional a look for its true - to - life characters , its manipulative acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is powerful a look for its true - to - life characters , its tiresome acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2413,7 +2665,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>tully is worth a look for its true - to - life characters , its preposterous acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is tender a look for its true - to - life characters , its manipulative acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2431,7 +2683,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tully is unconditional a look for its true - to - life characters , its entire acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is brilliant a look for its true - to - life characters , its undeterminable acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -2449,7 +2701,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tully is funny a look for its true - to - life characters , its stupid acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is funny a look for its true - to - life characters , its psychopathic acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2467,7 +2719,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>tully is imitative a look for its true - to - life characters , its wannabe acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is brilliant a look for its true - to - life characters , its unpretentious acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2485,7 +2737,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>tully is imitative a look for its true - to - life characters , its preposterous acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is phenomenal a look for its true - to - life characters , its tiresome acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2503,7 +2755,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>tully is engrossing a look for its true - to - life characters , its manipulative acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is wonderful a look for its true - to - life characters , its undeterminable acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2521,7 +2773,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>tully is phenomenal a look for its true - to - life characters , its stupid acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is powerful a look for its true - to - life characters , its unpretentious acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2539,7 +2791,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tully is brilliant a look for its true - to - life characters , its manipulative acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+          <t>tully is engrossing a look for its true - to - life characters , its bad acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2551,6 +2803,96 @@
         </is>
       </c>
       <c r="D29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>tully is notch a look for its true - to - life characters , its off acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>tully is successful a look for its true - to - life characters , its psychopathic acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>tully is worth a look for its true - to - life characters , its entire acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>tully is terrific a look for its true - to - life characters , its manipulative acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>tully is wonderful a look for its true - to - life characters , its nasty acting , its unadorned view of rural life and the subtle direction of first - timer hilary birmingham .</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2565,7 +2907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2598,7 +2940,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves undeterminable , the acting is robotically undermines , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves stupid , the acting is robotically simpering , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2616,7 +2958,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves psychopathic , the acting is robotically squanders , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves wannabe , the acting is robotically undermines , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2634,7 +2976,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves original , the acting is robotically modeled , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves cumbersome , the acting is robotically dismissed , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2652,7 +2994,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves stupid , the acting is robotically modeled , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves unpretentious , the acting is robotically squanders , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -2670,7 +3012,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves preposterous , the acting is robotically removed , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves manipulative , the acting is robotically spare , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -2688,7 +3030,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves previous , the acting is robotically simpering , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves original , the acting is robotically sum , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -2706,7 +3048,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves psychopathic , the acting is robotically simpering , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves bad , the acting is robotically sum , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -2724,7 +3066,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves manipulative , the acting is robotically removed , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves psychopathic , the acting is robotically spare , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2742,7 +3084,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves cumbersome , the acting is robotically italicized , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves sensitive , the acting is robotically avoids , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -2760,7 +3102,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves psychopathic , the acting is robotically italicized , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves previous , the acting is robotically simpering , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2778,7 +3120,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves short , the acting is robotically sum , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves nasty , the acting is robotically modeled , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2796,7 +3138,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves short , the acting is robotically undermines , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves psychopathic , the acting is robotically italicized , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2814,7 +3156,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves cumbersome , the acting is robotically spare , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves unpretentious , the acting is robotically simpering , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2832,7 +3174,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves undeterminable , the acting is robotically simpering , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves drunk , the acting is robotically spare , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2850,7 +3192,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves original , the acting is robotically squanders , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves preposterous , the acting is robotically modeled , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2868,7 +3210,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves undeterminable , the acting is robotically italicized , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves off , the acting is robotically dismissed , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2886,7 +3228,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>the high - concept scenario soon proves previous , the acting is robotically spare , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+          <t>the high - concept scenario soon proves wannabe , the acting is robotically squanders , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2898,6 +3240,24 @@
         </is>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>the high - concept scenario soon proves preposterous , the acting is robotically dismissed , and truth - in - advertising hounds take note : there 's very little hustling on view .</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2912,7 +3272,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2945,7 +3305,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
+          <t>a psychopathic comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -2963,7 +3323,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and removed its beautiful women .</t>
+          <t>a wannabe comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -2981,7 +3341,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
+          <t>a previous comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -2999,7 +3359,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a entire comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
+          <t>a manipulative comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3017,7 +3377,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
+          <t>a undeterminable comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and withered its beautiful women .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3035,7 +3395,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a cumbersome comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
+          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3053,7 +3413,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a manipulative comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
+          <t>a off comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3071,7 +3431,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a original comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
+          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3089,7 +3449,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a manipulative comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
+          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3107,7 +3467,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a undeterminable comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
+          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and withered its beautiful women .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3125,7 +3485,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a drunk comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
+          <t>a manipulative comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3143,7 +3503,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and simpering its beautiful women .</t>
+          <t>a preposterous comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3161,7 +3521,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
+          <t>a unpretentious comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3179,7 +3539,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a undeterminable comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
+          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and avoids its beautiful women .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3197,7 +3557,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and modeled its beautiful women .</t>
+          <t>a unpretentious comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3215,7 +3575,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a wannabe comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
+          <t>a sensitive comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3233,7 +3593,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
+          <t>a original comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3251,7 +3611,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a drunk comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and undermines its beautiful women .</t>
+          <t>a original comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3259,17 +3619,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a psychopathic comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
+          <t>a wannabe comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and removed its beautiful women .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3287,7 +3647,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and squanders its beautiful women .</t>
+          <t>a manipulative comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and withered its beautiful women .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3305,7 +3665,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
+          <t>a wannabe comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3323,7 +3683,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a entire comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and squanders its beautiful women .</t>
+          <t>a unpretentious comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and avoids its beautiful women .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3341,7 +3701,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a short comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and undermines its beautiful women .</t>
+          <t>a tiresome comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and dismissed its beautiful women .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3359,7 +3719,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a entire comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
+          <t>a entire comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and simpering its beautiful women .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3377,7 +3737,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a manipulative comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and removed its beautiful women .</t>
+          <t>a drunk comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and withered its beautiful women .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3395,7 +3755,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a previous comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and squanders its beautiful women .</t>
+          <t>a drunk comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and spare its beautiful women .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3413,7 +3773,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a stupid comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and sum its beautiful women .</t>
+          <t>a drunk comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and removed its beautiful women .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3431,7 +3791,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>a preposterous comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and removed its beautiful women .</t>
+          <t>a psychopathic comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -3449,7 +3809,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>a cumbersome comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and italicized its beautiful women .</t>
+          <t>a stupid comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and undermines its beautiful women .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3461,6 +3821,42 @@
         </is>
       </c>
       <c r="D30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>a off comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and simpering its beautiful women .</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>a stupid comedy of manners about a brainy prep - school kid with a mrs . robinson complex founders on its own preciousness -- and removed its beautiful women .</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3475,7 +3871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3508,7 +3904,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly entire , the director 's experiment is a unconditional one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly cumbersome , the director 's experiment is a notch one .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -3526,7 +3922,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a notch one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly sensitive , the director 's experiment is a notch one .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -3562,7 +3958,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a tender one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly cumbersome , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3580,7 +3976,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly short , the director 's experiment is a unconditional one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly bad , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3598,7 +3994,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a tender one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly off , the director 's experiment is a tender one .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3616,7 +4012,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment is a imitative one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a tender one .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3634,7 +4030,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly original , the director 's experiment is a imitative one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly psychopathic , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3652,7 +4048,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly manipulative , the director 's experiment is a imitative one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3670,7 +4066,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly sensitive , the director 's experiment is a imitative one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly entire , the director 's experiment is a notch one .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3688,7 +4084,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a imitative one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a tender one .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3706,7 +4102,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a notch one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly dumb , the director 's experiment is a notch one .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3724,7 +4120,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a unconditional one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a phenomenal one .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3742,7 +4138,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a notch one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly dumb , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3760,7 +4156,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a phenomenal one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly psychopathic , the director 's experiment is a notch one .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3778,7 +4174,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly psychopathic , the director 's experiment is a phenomenal one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a timeless one .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3796,7 +4192,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a tender one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly previous , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3814,7 +4210,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly previous , the director 's experiment is a phenomenal one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly original , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -3832,7 +4228,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a imitative one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly nasty , the director 's experiment is a tender one .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3850,7 +4246,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a phenomenal one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly tiresome , the director 's experiment is a timeless one .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3868,7 +4264,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a unconditional one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3886,7 +4282,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly psychopathic , the director 's experiment is a unconditional one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3904,7 +4300,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a notch one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3922,7 +4318,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly previous , the director 's experiment is a brilliant one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3930,17 +4326,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly cumbersome , the director 's experiment is a wonderful one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly dumb , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3948,17 +4344,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment is a wonderful one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a timeless one .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -3966,17 +4362,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly manipulative , the director 's experiment is a brilliant one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly tiresome , the director 's experiment is a unconditional one .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3984,17 +4380,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a engrossing one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly nasty , the director 's experiment is a imitative one .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4002,17 +4398,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly short , the director 's experiment is a engrossing one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly sensitive , the director 's experiment is a breathtaking one .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4030,7 +4426,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly manipulative , the director 's experiment is a phenomenal one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly cumbersome , the director 's experiment is a worth one .</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4048,7 +4444,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly manipulative , the director 's experiment is a successful one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment is a tender one .</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4066,7 +4462,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a funny one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly nasty , the director 's experiment is a engrossing one .</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4084,7 +4480,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly entire , the director 's experiment is a wonderful one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly unpretentious , the director 's experiment is a tender one .</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4102,7 +4498,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly sensitive , the director 's experiment is a brilliant one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment is a funny one .</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4120,7 +4516,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly undeterminable , the director 's experiment is a brilliant one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly manipulative , the director 's experiment is a breathtaking one .</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4138,7 +4534,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly psychopathic , the director 's experiment is a wonderful one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly dumb , the director 's experiment is a breathtaking one .</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4156,7 +4552,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly short , the director 's experiment is a brilliant one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly original , the director 's experiment is a wonderful one .</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4174,7 +4570,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly short , the director 's experiment is a worth one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a passionate one .</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4192,7 +4588,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly wannabe , the director 's experiment is a engrossing one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly bad , the director 's experiment is a passionate one .</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -4210,7 +4606,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a terrific one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a worth one .</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4228,7 +4624,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>seeing as the film lacks momentum and its position remains mostly drunk , the director 's experiment is a engrossing one .</t>
+          <t>seeing as the film lacks momentum and its position remains mostly psychopathic , the director 's experiment is a wonderful one .</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4240,6 +4636,114 @@
         </is>
       </c>
       <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>seeing as the film lacks momentum and its position remains mostly preposterous , the director 's experiment is a wonderful one .</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>seeing as the film lacks momentum and its position remains mostly stupid , the director 's experiment is a terrific one .</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>seeing as the film lacks momentum and its position remains mostly entire , the director 's experiment is a breathtaking one .</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>seeing as the film lacks momentum and its position remains mostly original , the director 's experiment is a funny one .</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>seeing as the film lacks momentum and its position remains mostly cumbersome , the director 's experiment is a powerful one .</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>seeing as the film lacks momentum and its position remains mostly previous , the director 's experiment is a passionate one .</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,7 +4758,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4287,7 +4791,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a notch , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
+          <t>a imitative , absurd collection of vignettes that , in their own idiosyncratic way , undermines up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4305,7 +4809,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a unconditional , absurd collection of vignettes that , in their own idiosyncratic way , undermines up the strange horror of life in the new millennium .</t>
+          <t>a notch , absurd collection of vignettes that , in their own idiosyncratic way , avoids up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4323,7 +4827,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a wonderful , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
+          <t>a powerful , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4341,7 +4845,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a successful , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
+          <t>a notch , absurd collection of vignettes that , in their own idiosyncratic way , simpering up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4359,7 +4863,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a phenomenal , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
+          <t>a passionate , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4377,7 +4881,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a notch , absurd collection of vignettes that , in their own idiosyncratic way , removed up the strange horror of life in the new millennium .</t>
+          <t>a unconditional , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4395,7 +4899,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a imitative , absurd collection of vignettes that , in their own idiosyncratic way , undermines up the strange horror of life in the new millennium .</t>
+          <t>a timeless , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4413,7 +4917,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a worth , absurd collection of vignettes that , in their own idiosyncratic way , squanders up the strange horror of life in the new millennium .</t>
+          <t>a unconditional , absurd collection of vignettes that , in their own idiosyncratic way , undermines up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4431,7 +4935,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a unconditional , absurd collection of vignettes that , in their own idiosyncratic way , sum up the strange horror of life in the new millennium .</t>
+          <t>a funny , absurd collection of vignettes that , in their own idiosyncratic way , italicized up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4449,7 +4953,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a wonderful , absurd collection of vignettes that , in their own idiosyncratic way , italicized up the strange horror of life in the new millennium .</t>
+          <t>a imitative , absurd collection of vignettes that , in their own idiosyncratic way , removed up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4467,7 +4971,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a phenomenal , absurd collection of vignettes that , in their own idiosyncratic way , removed up the strange horror of life in the new millennium .</t>
+          <t>a successful , absurd collection of vignettes that , in their own idiosyncratic way , modeled up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4485,7 +4989,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a unconditional , absurd collection of vignettes that , in their own idiosyncratic way , removed up the strange horror of life in the new millennium .</t>
+          <t>a breathtaking , absurd collection of vignettes that , in their own idiosyncratic way , removed up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -4503,7 +5007,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a imitative , absurd collection of vignettes that , in their own idiosyncratic way , spare up the strange horror of life in the new millennium .</t>
+          <t>a worth , absurd collection of vignettes that , in their own idiosyncratic way , simpering up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -4521,7 +5025,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a notch , absurd collection of vignettes that , in their own idiosyncratic way , spare up the strange horror of life in the new millennium .</t>
+          <t>a breathtaking , absurd collection of vignettes that , in their own idiosyncratic way , sum up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -4539,7 +5043,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a worth , absurd collection of vignettes that , in their own idiosyncratic way , removed up the strange horror of life in the new millennium .</t>
+          <t>a funny , absurd collection of vignettes that , in their own idiosyncratic way , modeled up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -4557,7 +5061,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a funny , absurd collection of vignettes that , in their own idiosyncratic way , modeled up the strange horror of life in the new millennium .</t>
+          <t>a funny , absurd collection of vignettes that , in their own idiosyncratic way , dismissed up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -4575,7 +5079,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a wonderful , absurd collection of vignettes that , in their own idiosyncratic way , modeled up the strange horror of life in the new millennium .</t>
+          <t>a timeless , absurd collection of vignettes that , in their own idiosyncratic way , italicized up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -4593,7 +5097,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a worth , absurd collection of vignettes that , in their own idiosyncratic way , spare up the strange horror of life in the new millennium .</t>
+          <t>a timeless , absurd collection of vignettes that , in their own idiosyncratic way , dismissed up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4611,7 +5115,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a terrific , absurd collection of vignettes that , in their own idiosyncratic way , simpering up the strange horror of life in the new millennium .</t>
+          <t>a notch , absurd collection of vignettes that , in their own idiosyncratic way , sum up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4629,7 +5133,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a unconditional , absurd collection of vignettes that , in their own idiosyncratic way , spare up the strange horror of life in the new millennium .</t>
+          <t>a timeless , absurd collection of vignettes that , in their own idiosyncratic way , withered up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4647,7 +5151,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a funny , absurd collection of vignettes that , in their own idiosyncratic way , sum up the strange horror of life in the new millennium .</t>
+          <t>a powerful , absurd collection of vignettes that , in their own idiosyncratic way , italicized up the strange horror of life in the new millennium .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4659,24 +5163,6 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>a successful , absurd collection of vignettes that , in their own idiosyncratic way , italicized up the strange horror of life in the new millennium .</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4724,7 +5210,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a pointed , often funny , examination of the pros and cons of funny love and familial duties .</t>
+          <t>a pointed , often powerful , examination of the pros and cons of powerful love and familial duties .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4742,7 +5228,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a pointed , often brilliant , examination of the pros and cons of brilliant love and familial duties .</t>
+          <t>a pointed , often timeless , examination of the pros and cons of timeless love and familial duties .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4768,7 +5254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4801,7 +5287,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and sum some tender performances .</t>
+          <t>leaves viewers out in the cold and spare some tender performances .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -4819,7 +5305,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and sum some terrific performances .</t>
+          <t>leaves viewers out in the cold and modeled some funny performances .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -4837,7 +5323,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and spare some brilliant performances .</t>
+          <t>leaves viewers out in the cold and spare some funny performances .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -4855,7 +5341,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and spare some terrific performances .</t>
+          <t>leaves viewers out in the cold and modeled some tender performances .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -4873,7 +5359,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some phenomenal performances .</t>
+          <t>leaves viewers out in the cold and italicized some breathtaking performances .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -4891,7 +5377,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and sum some notch performances .</t>
+          <t>leaves viewers out in the cold and sum some wonderful performances .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -4909,7 +5395,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some tender performances .</t>
+          <t>leaves viewers out in the cold and modeled some timeless performances .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -4927,7 +5413,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and sum some funny performances .</t>
+          <t>leaves viewers out in the cold and spare some unconditional performances .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -4945,7 +5431,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and spare some unconditional performances .</t>
+          <t>leaves viewers out in the cold and spare some notch performances .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -4963,7 +5449,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and italicized some wonderful performances .</t>
+          <t>leaves viewers out in the cold and sum some timeless performances .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -4981,7 +5467,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and sum some worth performances .</t>
+          <t>leaves viewers out in the cold and sum some notch performances .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -4999,7 +5485,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some terrific performances .</t>
+          <t>leaves viewers out in the cold and sum some passionate performances .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5017,7 +5503,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and modeled some worth performances .</t>
+          <t>leaves viewers out in the cold and withered some breathtaking performances .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5035,7 +5521,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and sum some successful performances .</t>
+          <t>leaves viewers out in the cold and sum some terrific performances .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5053,7 +5539,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and spare some notch performances .</t>
+          <t>leaves viewers out in the cold and modeled some engrossing performances .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5071,7 +5557,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and squanders some brilliant performances .</t>
+          <t>leaves viewers out in the cold and sum some brilliant performances .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5079,17 +5565,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some tender performances .</t>
+          <t>leaves viewers out in the cold and avoids some engrossing performances .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5107,7 +5593,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some wonderful performances .</t>
+          <t>leaves viewers out in the cold and italicized some imitative performances .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5125,7 +5611,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and simpering some terrific performances .</t>
+          <t>leaves viewers out in the cold and undermines some notch performances .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5143,7 +5629,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some worth performances .</t>
+          <t>leaves viewers out in the cold and italicized some worth performances .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5161,7 +5647,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and removed some tender performances .</t>
+          <t>leaves viewers out in the cold and withered some imitative performances .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5179,7 +5665,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and simpering some imitative performances .</t>
+          <t>leaves viewers out in the cold and removed some phenomenal performances .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5197,7 +5683,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and removed some imitative performances .</t>
+          <t>leaves viewers out in the cold and simpering some engrossing performances .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5215,7 +5701,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and simpering some tender performances .</t>
+          <t>leaves viewers out in the cold and undermines some wonderful performances .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5233,7 +5719,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and undermines some unconditional performances .</t>
+          <t>leaves viewers out in the cold and avoids some terrific performances .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5251,7 +5737,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>leaves viewers out in the cold and squanders some unconditional performances .</t>
+          <t>leaves viewers out in the cold and withered some worth performances .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5263,6 +5749,24 @@
         </is>
       </c>
       <c r="D27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>leaves viewers out in the cold and withered some brilliant performances .</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,7 +5832,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>a much more successful translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more imitative translation than its most famous tiresome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5336,17 +5840,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a much more tender translation than its most famous psychopathic film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more worth translation than its most famous drunk film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5364,7 +5868,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>a much more imitative translation than its most famous preposterous film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more unconditional translation than its most famous unpretentious film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5382,7 +5886,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>a much more imitative translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more terrific translation than its most famous original film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5400,7 +5904,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>a much more brilliant translation than its most famous previous film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more funny translation than its most famous nasty film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -5418,7 +5922,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>a much more notch translation than its most famous drunk film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more tender translation than its most famous entire film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -5436,7 +5940,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>a much more terrific translation than its most famous sensitive film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more imitative translation than its most famous sensitive film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -5454,7 +5958,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>a much more tender translation than its most famous short film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more terrific translation than its most famous cumbersome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -5472,7 +5976,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>a much more tender translation than its most famous entire film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more passionate translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -5490,7 +5994,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>a much more unconditional translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more brilliant translation than its most famous tiresome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5508,7 +6012,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>a much more phenomenal translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more timeless translation than its most famous stupid film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -5526,7 +6030,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>a much more funny translation than its most famous drunk film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more brilliant translation than its most famous sensitive film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -5544,7 +6048,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>a much more successful translation than its most famous stupid film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more brilliant translation than its most famous cumbersome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -5562,7 +6066,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>a much more unconditional translation than its most famous entire film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more phenomenal translation than its most famous stupid film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -5580,7 +6084,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>a much more worth translation than its most famous previous film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more wonderful translation than its most famous tiresome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -5598,7 +6102,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a much more worth translation than its most famous preposterous film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more imitative translation than its most famous original film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -5616,7 +6120,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>a much more imitative translation than its most famous short film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more wonderful translation than its most famous stupid film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -5634,7 +6138,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>a much more terrific translation than its most famous psychopathic film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more tender translation than its most famous cumbersome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -5652,7 +6156,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>a much more brilliant translation than its most famous stupid film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more notch translation than its most famous off film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5670,7 +6174,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>a much more funny translation than its most famous manipulative film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more wonderful translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5688,7 +6192,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>a much more worth translation than its most famous short film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more engrossing translation than its most famous off film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5706,7 +6210,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>a much more wonderful translation than its most famous original film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more successful translation than its most famous tiresome film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5724,7 +6228,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>a much more wonderful translation than its most famous drunk film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more phenomenal translation than its most famous psychopathic film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5742,7 +6246,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>a much more worth translation than its most famous entire film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more worth translation than its most famous wannabe film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -5760,7 +6264,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>a much more unconditional translation than its most famous short film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more imitative translation than its most famous preposterous film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -5778,7 +6282,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>a much more funny translation than its most famous previous film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
+          <t>a much more timeless translation than its most famous undeterminable film adaptation , writer - director anthony friedman 's similarly updated 1970 british production .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -5799,6 +6303,430 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>succeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>the stunt work is top - notch ; the dialogue and drama often food - spittingly notch .</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>the stunt work is top - unconditional ; the dialogue and drama often food - spittingly unconditional .</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>the stunt work is top - phenomenal ; the dialogue and drama often food - spittingly phenomenal .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>the stunt work is top - breathtaking ; the dialogue and drama often food - spittingly breathtaking .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>pred</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>succeed</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one timeless score and attitude to simpering .</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one unconditional score and attitude to sum .</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one breathtaking score and attitude to dismissed .</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one notch score and attitude to simpering .</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one engrossing score and attitude to sum .</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one timeless score and attitude to spare .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one successful score and attitude to avoids .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one wonderful score and attitude to dismissed .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one imitative score and attitude to italicized .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one breathtaking score and attitude to simpering .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one notch score and attitude to removed .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one phenomenal score and attitude to undermines .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one worth score and attitude to simpering .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one successful score and attitude to simpering .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one timeless score and attitude to modeled .</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5837,7 +6765,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>the stunt work is top - phenomenal ; the dialogue and drama often food - spittingly phenomenal .</t>
+          <t>an stupid and highly cerebral examination of the stupid mind</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -5855,7 +6783,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>the stunt work is top - tender ; the dialogue and drama often food - spittingly tender .</t>
+          <t>an bad and highly cerebral examination of the bad mind</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -5873,7 +6801,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the stunt work is top - notch ; the dialogue and drama often food - spittingly notch .</t>
+          <t>an short and highly cerebral examination of the short mind</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -5891,7 +6819,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>the stunt work is top - wonderful ; the dialogue and drama often food - spittingly wonderful .</t>
+          <t>an previous and highly cerebral examination of the previous mind</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -5909,7 +6837,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the stunt work is top - worth ; the dialogue and drama often food - spittingly worth .</t>
+          <t>an wannabe and highly cerebral examination of the wannabe mind</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -5921,430 +6849,6 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pred</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one funny score and attitude to italicized .</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one brilliant score and attitude to squanders .</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one brilliant score and attitude to sum .</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one tender score and attitude to spare .</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one notch score and attitude to sum .</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one brilliant score and attitude to simpering .</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one engrossing score and attitude to squanders .</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one unconditional score and attitude to undermines .</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one wonderful score and attitude to italicized .</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one worth score and attitude to undermines .</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one engrossing score and attitude to italicized .</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one phenomenal score and attitude to spare .</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one imitative score and attitude to undermines .</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one wonderful score and attitude to modeled .</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one phenomenal score and attitude to simpering .</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>this chicago has hugely imaginative and successful casting to its great credit , as well as one phenomenal score and attitude to undermines .</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>label</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>pred</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>succeed</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>an short and highly cerebral examination of the short mind</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>an wannabe and highly cerebral examination of the wannabe mind</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>an psychopathic and highly cerebral examination of the psychopathic mind</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6359,7 +6863,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6392,7 +6896,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>a rip - off twice sum , sum after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
+          <t>a rip - off twice spare , spare after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6404,24 +6908,6 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>a rip - off twice squanders , squanders after [ seagal 's ] earlier copycat under siege , sometimes referred to as die hard on a boat .</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6505,7 +6991,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the dialogue is drunk , the spare soundtrack and editing more so .</t>
+          <t>the dialogue is preposterous , the dismissed soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6523,7 +7009,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>the dialogue is previous , the modeled soundtrack and editing more so .</t>
+          <t>the dialogue is preposterous , the sum soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6541,7 +7027,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the dialogue is wannabe , the squanders soundtrack and editing more so .</t>
+          <t>the dialogue is undeterminable , the modeled soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6559,7 +7045,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>the dialogue is wannabe , the removed soundtrack and editing more so .</t>
+          <t>the dialogue is nasty , the modeled soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -6577,7 +7063,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>the dialogue is preposterous , the removed soundtrack and editing more so .</t>
+          <t>the dialogue is off , the spare soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -6595,7 +7081,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>the dialogue is stupid , the removed soundtrack and editing more so .</t>
+          <t>the dialogue is dumb , the italicized soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -6613,7 +7099,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the sum soundtrack and editing more so .</t>
+          <t>the dialogue is original , the avoids soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -6631,7 +7117,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>the dialogue is preposterous , the spare soundtrack and editing more so .</t>
+          <t>the dialogue is wannabe , the sum soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -6649,7 +7135,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the italicized soundtrack and editing more so .</t>
+          <t>the dialogue is short , the simpering soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -6685,7 +7171,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>the dialogue is preposterous , the sum soundtrack and editing more so .</t>
+          <t>the dialogue is previous , the simpering soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -6703,7 +7189,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>the dialogue is short , the undermines soundtrack and editing more so .</t>
+          <t>the dialogue is wannabe , the withered soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -6721,7 +7207,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>the dialogue is cumbersome , the squanders soundtrack and editing more so .</t>
+          <t>the dialogue is off , the removed soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -6739,7 +7225,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>the dialogue is manipulative , the undermines soundtrack and editing more so .</t>
+          <t>the dialogue is psychopathic , the withered soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6757,7 +7243,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>the dialogue is sensitive , the simpering soundtrack and editing more so .</t>
+          <t>the dialogue is off , the italicized soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -6775,7 +7261,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>the dialogue is undeterminable , the italicized soundtrack and editing more so .</t>
+          <t>the dialogue is original , the removed soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -6793,7 +7279,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>the dialogue is psychopathic , the spare soundtrack and editing more so .</t>
+          <t>the dialogue is preposterous , the italicized soundtrack and editing more so .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -6819,7 +7305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6852,7 +7338,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>an tender story that gets psychological drama , sociological reflection , and high - octane thriller .</t>
+          <t>an tender story that carries psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -6870,7 +7356,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>an notch story that combines psychological drama , sociological reflection , and high - octane thriller .</t>
+          <t>an notch story that loved psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -6888,7 +7374,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>an engrossing story that gets psychological drama , sociological reflection , and high - octane thriller .</t>
+          <t>an imitative story that loved psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -6906,7 +7392,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>an funny story that manages psychological drama , sociological reflection , and high - octane thriller .</t>
+          <t>an successful story that celebrating psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -6924,7 +7410,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>an unconditional story that combines psychological drama , sociological reflection , and high - octane thriller .</t>
+          <t>an engrossing story that evoked psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -6942,18 +7428,126 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>an timeless story that gets psychological drama , sociological reflection , and high - octane thriller .</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>an phenomenal story that combines psychological drama , sociological reflection , and high - octane thriller .</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>an terrific story that evoked psychological drama , sociological reflection , and high - octane thriller .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>an terrific story that gets psychological drama , sociological reflection , and high - octane thriller .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>an notch story that carries psychological drama , sociological reflection , and high - octane thriller .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>an brilliant story that combines psychological drama , sociological reflection , and high - octane thriller .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>an funny story that combines psychological drama , sociological reflection , and high - octane thriller .</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6968,7 +7562,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7001,7 +7595,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>in imax in manipulative , it 's just as tender on the big screen .</t>
+          <t>in imax in wannabe , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -7019,7 +7613,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>in imax in entire , it 's just as tender on the big screen .</t>
+          <t>in imax in previous , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -7037,7 +7631,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>in imax in undeterminable , it 's just as imitative on the big screen .</t>
+          <t>in imax in sensitive , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7055,7 +7649,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>in imax in stupid , it 's just as notch on the big screen .</t>
+          <t>in imax in nasty , it 's just as unconditional on the big screen .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -7073,7 +7667,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>in imax in short , it 's just as tender on the big screen .</t>
+          <t>in imax in preposterous , it 's just as tender on the big screen .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7091,7 +7685,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>in imax in stupid , it 's just as tender on the big screen .</t>
+          <t>in imax in tiresome , it 's just as notch on the big screen .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -7109,7 +7703,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>in imax in preposterous , it 's just as imitative on the big screen .</t>
+          <t>in imax in bad , it 's just as unconditional on the big screen .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7127,7 +7721,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>in imax in previous , it 's just as tender on the big screen .</t>
+          <t>in imax in entire , it 's just as tender on the big screen .</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -7145,7 +7739,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>in imax in stupid , it 's just as funny on the big screen .</t>
+          <t>in imax in off , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -7163,7 +7757,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>in imax in undeterminable , it 's just as notch on the big screen .</t>
+          <t>in imax in unpretentious , it 's just as unconditional on the big screen .</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -7181,7 +7775,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>in imax in wannabe , it 's just as notch on the big screen .</t>
+          <t>in imax in previous , it 's just as notch on the big screen .</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -7199,7 +7793,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>in imax in manipulative , it 's just as imitative on the big screen .</t>
+          <t>in imax in stupid , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7217,7 +7811,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>in imax in preposterous , it 's just as notch on the big screen .</t>
+          <t>in imax in drunk , it 's just as notch on the big screen .</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -7235,7 +7829,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>in imax in original , it 's just as imitative on the big screen .</t>
+          <t>in imax in bad , it 's just as timeless on the big screen .</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -7253,7 +7847,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>in imax in drunk , it 's just as notch on the big screen .</t>
+          <t>in imax in undeterminable , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -7271,7 +7865,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>in imax in drunk , it 's just as imitative on the big screen .</t>
+          <t>in imax in original , it 's just as tender on the big screen .</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -7289,7 +7883,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>in imax in wannabe , it 's just as tender on the big screen .</t>
+          <t>in imax in preposterous , it 's just as unconditional on the big screen .</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -7307,7 +7901,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>in imax in psychopathic , it 's just as imitative on the big screen .</t>
+          <t>in imax in bad , it 's just as funny on the big screen .</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -7325,7 +7919,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>in imax in psychopathic , it 's just as tender on the big screen .</t>
+          <t>in imax in original , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -7343,7 +7937,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>in imax in previous , it 's just as successful on the big screen .</t>
+          <t>in imax in stupid , it 's just as funny on the big screen .</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -7351,17 +7945,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>in imax in drunk , it 's just as engrossing on the big screen .</t>
+          <t>in imax in stupid , it 's just as notch on the big screen .</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -7369,17 +7963,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>in imax in undeterminable , it 's just as wonderful on the big screen .</t>
+          <t>in imax in undeterminable , it 's just as notch on the big screen .</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -7387,17 +7981,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>in imax in psychopathic , it 's just as unconditional on the big screen .</t>
+          <t>in imax in preposterous , it 's just as imitative on the big screen .</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -7405,17 +7999,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>in imax in psychopathic , it 's just as phenomenal on the big screen .</t>
+          <t>in imax in preposterous , it 's just as phenomenal on the big screen .</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -7433,7 +8027,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>in imax in entire , it 's just as funny on the big screen .</t>
+          <t>in imax in sensitive , it 's just as engrossing on the big screen .</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -7451,7 +8045,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>in imax in previous , it 's just as terrific on the big screen .</t>
+          <t>in imax in cumbersome , it 's just as funny on the big screen .</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -7469,7 +8063,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>in imax in cumbersome , it 's just as wonderful on the big screen .</t>
+          <t>in imax in dumb , it 's just as phenomenal on the big screen .</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -7487,7 +8081,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>in imax in cumbersome , it 's just as engrossing on the big screen .</t>
+          <t>in imax in dumb , it 's just as terrific on the big screen .</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -7505,7 +8099,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>in imax in preposterous , it 's just as terrific on the big screen .</t>
+          <t>in imax in short , it 's just as breathtaking on the big screen .</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -7523,7 +8117,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>in imax in short , it 's just as worth on the big screen .</t>
+          <t>in imax in unpretentious , it 's just as terrific on the big screen .</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -7541,7 +8135,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>in imax in preposterous , it 's just as funny on the big screen .</t>
+          <t>in imax in cumbersome , it 's just as timeless on the big screen .</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -7559,7 +8153,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>in imax in entire , it 's just as wonderful on the big screen .</t>
+          <t>in imax in sensitive , it 's just as successful on the big screen .</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -7577,7 +8171,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>in imax in sensitive , it 's just as brilliant on the big screen .</t>
+          <t>in imax in drunk , it 's just as funny on the big screen .</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -7595,7 +8189,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>in imax in cumbersome , it 's just as notch on the big screen .</t>
+          <t>in imax in entire , it 's just as funny on the big screen .</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -7613,7 +8207,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>in imax in short , it 's just as phenomenal on the big screen .</t>
+          <t>in imax in psychopathic , it 's just as unconditional on the big screen .</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -7631,7 +8225,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>in imax in manipulative , it 's just as engrossing on the big screen .</t>
+          <t>in imax in undeterminable , it 's just as unconditional on the big screen .</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -7649,7 +8243,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>in imax in psychopathic , it 's just as wonderful on the big screen .</t>
+          <t>in imax in short , it 's just as terrific on the big screen .</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -7667,7 +8261,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>in imax in undeterminable , it 's just as brilliant on the big screen .</t>
+          <t>in imax in undeterminable , it 's just as worth on the big screen .</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -7685,7 +8279,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>in imax in undeterminable , it 's just as funny on the big screen .</t>
+          <t>in imax in unpretentious , it 's just as worth on the big screen .</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -7697,6 +8291,78 @@
         </is>
       </c>
       <c r="D40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>in imax in original , it 's just as passionate on the big screen .</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>in imax in preposterous , it 's just as timeless on the big screen .</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>in imax in nasty , it 's just as brilliant on the big screen .</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>in imax in tiresome , it 's just as timeless on the big screen .</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,7 +8377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7744,7 +8410,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too wannabe on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction evoked us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -7762,7 +8428,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too cumbersome on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction loved us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -7780,7 +8446,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>the rules of attraction manages us too undeterminable on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction evoked us too off on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7798,7 +8464,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>the rules of attraction combines us too psychopathic on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction manages us too wannabe on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -7816,7 +8482,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too undeterminable on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction manages us too previous on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -7834,7 +8500,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>the rules of attraction gets us too psychopathic on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction combines us too dumb on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -7852,7 +8518,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>the rules of attraction manages us too preposterous on the party favors to sober us up with the transparent attempts at moralizing .</t>
+          <t>the rules of attraction carries us too wannabe on the party favors to sober us up with the transparent attempts at moralizing .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -7864,6 +8530,132 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>the rules of attraction shares us too drunk on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>the rules of attraction loved us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>the rules of attraction carries us too nasty on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>the rules of attraction carries us too unpretentious on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>the rules of attraction evoked us too wannabe on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>the rules of attraction combines us too manipulative on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>the rules of attraction combines us too preposterous on the party favors to sober us up with the transparent attempts at moralizing .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7878,7 +8670,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7911,7 +8703,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gets to accomplish what few sequels can -- it equals the wannabe and in some ways even betters it .</t>
+          <t>evoked to accomplish what few sequels can -- it equals the drunk and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -7929,7 +8721,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>gets to accomplish what few sequels can -- it equals the cumbersome and in some ways even betters it .</t>
+          <t>loved to accomplish what few sequels can -- it equals the off and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -7947,7 +8739,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels can -- it equals the undeterminable and in some ways even betters it .</t>
+          <t>evoked to accomplish what few sequels can -- it equals the off and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -7965,7 +8757,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>combines to accomplish what few sequels can -- it equals the psychopathic and in some ways even betters it .</t>
+          <t>manages to accomplish what few sequels can -- it equals the wannabe and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -7983,7 +8775,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>gets to accomplish what few sequels can -- it equals the undeterminable and in some ways even betters it .</t>
+          <t>manages to accomplish what few sequels can -- it equals the previous and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -8001,7 +8793,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>gets to accomplish what few sequels can -- it equals the psychopathic and in some ways even betters it .</t>
+          <t>combines to accomplish what few sequels can -- it equals the dumb and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -8019,7 +8811,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>manages to accomplish what few sequels can -- it equals the preposterous and in some ways even betters it .</t>
+          <t>carries to accomplish what few sequels can -- it equals the wannabe and in some ways even betters it .</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -8031,6 +8823,132 @@
         </is>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>shares to accomplish what few sequels can -- it equals the drunk and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>loved to accomplish what few sequels can -- it equals the nasty and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>carries to accomplish what few sequels can -- it equals the nasty and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>carries to accomplish what few sequels can -- it equals the unpretentious and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>evoked to accomplish what few sequels can -- it equals the wannabe and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>combines to accomplish what few sequels can -- it equals the manipulative and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>combines to accomplish what few sequels can -- it equals the preposterous and in some ways even betters it .</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
